--- a/biology/Histoire de la zoologie et de la botanique/David_Watson_Mackie/David_Watson_Mackie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Watson_Mackie/David_Watson_Mackie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Watson Mackie est un électricien et un arachnologiste  britannique amateur, né le 22 août 1902 à Irvine dans l’Ayrshire et mort le 27 août 1984.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’Irvine Royal Academy avant d’entrer comme apprenti électricien à l’Ayrshire Dockyard Company. Il travaille dans d’autres sociétés, ce qui lui permet de voyager notamment au Canada, en Afrique du Nord et de l’Ouest, et dans les îles Canaries.
 Passionné dès sa jeunesse par l’histoire naturelle, il participe à la création, en 1959 du Faltford Mill Field Centre qui deviendra plus tard la British Spider Study Group puis la British Arachnological Society. Il contribue grandement à la connaissance des araignées et des opilions de Grande-Bretagne.
